--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationATA\ATA_Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATA_Automation\ATA_Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="393">
   <si>
     <t>NO</t>
   </si>
@@ -1391,6 +1391,42 @@
   </si>
   <si>
     <t>ATESTEST12</t>
+  </si>
+  <si>
+    <t>AZC19</t>
+  </si>
+  <si>
+    <t>LUI890</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>nameWorkshop</t>
+  </si>
+  <si>
+    <t>Spiderman Auto Serv Sdn Bhd</t>
+  </si>
+  <si>
+    <t>No. 38, Jalan Makmur 3/7</t>
+  </si>
+  <si>
+    <t>Taman Setia Bandar</t>
+  </si>
+  <si>
+    <t>Cheras</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1901,6 +1937,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2260,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,9 +2325,13 @@
     <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2376,8 +2422,29 @@
       <c r="AD1" s="48" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF1" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL1" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="42">
         <v>1</v>
       </c>
@@ -2455,14 +2522,36 @@
       </c>
       <c r="AD2" t="s">
         <v>288</v>
+      </c>
+      <c r="AF2" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG2" s="73">
+        <v>1234567898</v>
+      </c>
+      <c r="AH2" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI2" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ2" s="72">
+        <v>84100</v>
+      </c>
+      <c r="AK2" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL2" s="72" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="AG2" r:id="rId2" display="someone@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2555,7 +2644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2730,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,7 +3737,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,10 +5136,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,7 +5221,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>85</v>
@@ -5167,7 +5256,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>85</v>
@@ -5202,6 +5291,9 @@
       <c r="P3" s="1" t="s">
         <v>166</v>
       </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="393">
   <si>
     <t>NO</t>
   </si>
@@ -1327,9 +1327,6 @@
     <t>ATS029</t>
   </si>
   <si>
-    <t xml:space="preserve">    **only applicable for case with Service 8: locked vehicle for car,  Service 9:I'm not sure what's wrong  for car/motor &amp; Out of Petrol</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1427,6 +1424,9 @@
   </si>
   <si>
     <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>**only applicable for case with Service 8: locked vehicle for car,  Service 9:I'm not sure what's wrong  for car/motor &amp; Out of Petrol</t>
   </si>
 </sst>
 </file>
@@ -1896,6 +1896,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1936,13 +1942,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2304,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
@@ -2423,19 +2423,19 @@
         <v>145</v>
       </c>
       <c r="AF1" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG1" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH1" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AI1" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="AI1" s="48" t="s">
+      <c r="AJ1" s="48" t="s">
         <v>385</v>
-      </c>
-      <c r="AJ1" s="48" t="s">
-        <v>386</v>
       </c>
       <c r="AK1" s="48" t="s">
         <v>262</v>
@@ -2523,26 +2523,26 @@
       <c r="AD2" t="s">
         <v>288</v>
       </c>
-      <c r="AF2" s="72" t="s">
+      <c r="AF2" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG2" s="59">
+        <v>1234567898</v>
+      </c>
+      <c r="AH2" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="AG2" s="73">
-        <v>1234567898</v>
-      </c>
-      <c r="AH2" s="72" t="s">
+      <c r="AI2" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="AI2" s="72" t="s">
+      <c r="AJ2" s="58">
+        <v>84100</v>
+      </c>
+      <c r="AK2" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="AJ2" s="72">
-        <v>84100</v>
-      </c>
-      <c r="AK2" s="72" t="s">
+      <c r="AL2" s="58" t="s">
         <v>391</v>
-      </c>
-      <c r="AL2" s="72" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2678,7 @@
         <v>290</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>261</v>
@@ -2690,7 +2690,7 @@
         <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2698,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
         <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" s="42">
         <v>123456789</v>
@@ -2713,16 +2713,16 @@
         <v>198765432</v>
       </c>
       <c r="G2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" t="s">
         <v>364</v>
       </c>
-      <c r="H2" t="s">
-        <v>365</v>
-      </c>
       <c r="I2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E3" s="42">
         <v>123456790</v>
@@ -2739,7 +2739,7 @@
         <v>198765433</v>
       </c>
       <c r="H3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="42">
         <v>123456791</v>
@@ -2756,7 +2756,7 @@
         <v>198765434</v>
       </c>
       <c r="H4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E5" s="42">
         <v>123456792</v>
@@ -2773,7 +2773,7 @@
         <v>198765435</v>
       </c>
       <c r="H5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="42">
         <v>123456793</v>
@@ -2790,7 +2790,7 @@
         <v>198765436</v>
       </c>
       <c r="H6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" s="42">
         <v>123456794</v>
@@ -2807,7 +2807,7 @@
         <v>198765437</v>
       </c>
       <c r="H7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2819,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,56 +2830,57 @@
     <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.5703125" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="60" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
@@ -2895,14 +2896,14 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="70" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="59"/>
+      <c r="Q2" s="61"/>
       <c r="R2" s="33" t="s">
         <v>148</v>
       </c>
@@ -2910,10 +2911,10 @@
       <c r="T2" s="22"/>
       <c r="U2" s="23"/>
       <c r="V2" s="36"/>
-      <c r="W2" s="58" t="s">
+      <c r="W2" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="X2" s="59"/>
+      <c r="X2" s="61"/>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2923,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="26" t="s">
         <v>6</v>
       </c>
@@ -2942,10 +2943,10 @@
       <c r="J3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="67"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="20" t="s">
         <v>57</v>
       </c>
@@ -2990,7 +2991,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="64" t="s">
         <v>148</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -3061,7 +3062,7 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -3100,8 +3101,8 @@
       <c r="Q5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R5" s="71" t="s">
-        <v>359</v>
+      <c r="R5" s="73" t="s">
+        <v>392</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>128</v>
@@ -3123,7 +3124,7 @@
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
@@ -3154,7 +3155,7 @@
       <c r="Q6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="71"/>
+      <c r="R6" s="73"/>
       <c r="T6" s="1" t="s">
         <v>139</v>
       </c>
@@ -3166,7 +3167,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C7" s="62"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
@@ -3191,7 +3192,7 @@
       <c r="Q7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R7" s="71"/>
+      <c r="R7" s="73"/>
       <c r="S7" s="1" t="s">
         <v>129</v>
       </c>
@@ -3206,7 +3207,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C8" s="62"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
@@ -3226,7 +3227,7 @@
       <c r="Q8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="71"/>
+      <c r="R8" s="73"/>
       <c r="T8" s="1" t="s">
         <v>133</v>
       </c>
@@ -3238,7 +3239,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C9" s="62"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
@@ -3259,7 +3260,7 @@
       <c r="Q9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="71"/>
+      <c r="R9" s="73"/>
       <c r="T9" s="1" t="s">
         <v>134</v>
       </c>
@@ -3268,7 +3269,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C10" s="62"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
@@ -3290,7 +3291,7 @@
       <c r="Q10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R10" s="71"/>
+      <c r="R10" s="73"/>
       <c r="T10" s="1" t="s">
         <v>135</v>
       </c>
@@ -3302,7 +3303,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C11" s="62"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
@@ -3333,7 +3334,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C12" s="63"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
@@ -3354,7 +3355,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="64" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -3387,7 +3388,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="62"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
@@ -3408,7 +3409,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="62"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +3430,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C16" s="62"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -3447,7 +3448,7 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C17" s="62"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="7" t="s">
         <v>43</v>
       </c>
@@ -3462,7 +3463,7 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C18" s="62"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
@@ -3472,12 +3473,18 @@
       <c r="N18" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="S18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="X18" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C19" s="62"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
@@ -3486,6 +3493,9 @@
       </c>
       <c r="N19" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="W19" s="34" t="s">
         <v>173</v>
@@ -3500,6 +3510,9 @@
       <c r="N20" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="T20" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="X20" s="1" t="s">
         <v>192</v>
       </c>
@@ -3520,6 +3533,12 @@
       <c r="N22" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="S22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="X22" s="1" t="s">
         <v>194</v>
       </c>
@@ -3533,6 +3552,9 @@
       </c>
       <c r="N23" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>195</v>
@@ -4476,7 +4498,7 @@
         <v>295</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>348</v>
@@ -5123,10 +5145,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>361</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5139,7 +5161,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5221,7 +5243,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>85</v>
@@ -5256,7 +5278,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>85</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="395">
   <si>
     <t>NO</t>
   </si>
@@ -1390,12 +1390,6 @@
     <t>ATESTEST12</t>
   </si>
   <si>
-    <t>AZC19</t>
-  </si>
-  <si>
-    <t>LUI890</t>
-  </si>
-  <si>
     <t>Fax</t>
   </si>
   <si>
@@ -1427,6 +1421,18 @@
   </si>
   <si>
     <t>**only applicable for case with Service 8: locked vehicle for car,  Service 9:I'm not sure what's wrong  for car/motor &amp; Out of Petrol</t>
+  </si>
+  <si>
+    <t>ANW14</t>
+  </si>
+  <si>
+    <t>MJN123</t>
+  </si>
+  <si>
+    <t>VBN765</t>
+  </si>
+  <si>
+    <t>WSA12345</t>
   </si>
 </sst>
 </file>
@@ -2423,19 +2429,19 @@
         <v>145</v>
       </c>
       <c r="AF1" s="48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AG1" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI1" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AJ1" s="48" t="s">
         <v>383</v>
-      </c>
-      <c r="AI1" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="AJ1" s="48" t="s">
-        <v>385</v>
       </c>
       <c r="AK1" s="48" t="s">
         <v>262</v>
@@ -2524,25 +2530,25 @@
         <v>288</v>
       </c>
       <c r="AF2" s="58" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG2" s="59">
         <v>1234567898</v>
       </c>
       <c r="AH2" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AI2" s="58" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AJ2" s="58">
         <v>84100</v>
       </c>
       <c r="AK2" s="58" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AL2" s="58" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -2819,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="O2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3108,7 @@
         <v>118</v>
       </c>
       <c r="R5" s="73" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>128</v>
@@ -5158,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,7 +5249,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>85</v>
@@ -5263,8 +5269,14 @@
       <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>166</v>
@@ -5278,7 +5290,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>85</v>
@@ -5315,7 +5327,124 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="423">
   <si>
     <t>NO</t>
   </si>
@@ -1089,16 +1089,10 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>TAA 1</t>
-  </si>
-  <si>
     <t>Lehman</t>
   </si>
   <si>
     <t>ISWARA 1.5</t>
-  </si>
-  <si>
-    <t>ab@c.d</t>
   </si>
   <si>
     <t>Breakdown Towing - Car</t>
@@ -1426,13 +1420,103 @@
     <t>ANW14</t>
   </si>
   <si>
-    <t>MJN123</t>
-  </si>
-  <si>
-    <t>VBN765</t>
-  </si>
-  <si>
     <t>WSA12345</t>
+  </si>
+  <si>
+    <t>QAF15</t>
+  </si>
+  <si>
+    <t>Joses</t>
+  </si>
+  <si>
+    <t>Khairul</t>
+  </si>
+  <si>
+    <t>Aziq</t>
+  </si>
+  <si>
+    <t>Aniq</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Sari</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Seri</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Aiman</t>
+  </si>
+  <si>
+    <t>Hafiz</t>
+  </si>
+  <si>
+    <t>WAVE</t>
+  </si>
+  <si>
+    <t>1299 PANIGALE</t>
+  </si>
+  <si>
+    <t>ATIVA 1.0L TURBO AV</t>
+  </si>
+  <si>
+    <t>Gear Problem</t>
+  </si>
+  <si>
+    <t>dll</t>
+  </si>
+  <si>
+    <t>ab@gmail.com</t>
+  </si>
+  <si>
+    <t>TAA31</t>
+  </si>
+  <si>
+    <t>TAA32</t>
+  </si>
+  <si>
+    <t>TAA33</t>
+  </si>
+  <si>
+    <t>TAA34</t>
+  </si>
+  <si>
+    <t>TAA35</t>
+  </si>
+  <si>
+    <t>TAA36</t>
+  </si>
+  <si>
+    <t>TAA37</t>
+  </si>
+  <si>
+    <t>TAA44</t>
+  </si>
+  <si>
+    <t>TAA45</t>
+  </si>
+  <si>
+    <t>TAA46</t>
+  </si>
+  <si>
+    <t>TAA47</t>
+  </si>
+  <si>
+    <t>TAA48</t>
+  </si>
+  <si>
+    <t>TAA49</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,6 +1695,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1908,6 +2022,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1957,6 +2080,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF33"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2308,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,21 +2454,24 @@
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2420,54 +2554,57 @@
         <v>279</v>
       </c>
       <c r="AB1" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AD1" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AE1" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="AF1" s="48" t="s">
-        <v>384</v>
-      </c>
       <c r="AG1" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AK1" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="AI1" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ1" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="AK1" s="48" t="s">
+      <c r="AL1" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="AL1" s="48" t="s">
+      <c r="AM1" s="48" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>172983817</v>
+        <v>12345678952</v>
       </c>
       <c r="C2" s="46">
-        <v>1110101989</v>
+        <v>123456788</v>
       </c>
       <c r="D2" s="46">
-        <v>198122249</v>
+        <v>123456777</v>
       </c>
       <c r="E2" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>280</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>281</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>4</v>
@@ -2476,7 +2613,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>33</v>
@@ -2485,16 +2622,16 @@
         <v>58</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="P2" s="45" t="s">
-        <v>134</v>
+        <v>282</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>291</v>
       </c>
       <c r="Q2" s="42" t="s">
         <v>16</v>
@@ -2515,49 +2652,854 @@
         <v>17</v>
       </c>
       <c r="W2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Y2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE2" t="s">
         <v>286</v>
       </c>
-      <c r="AC2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF2" s="58" t="s">
+      <c r="AG2" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH2" s="59">
+        <v>1234567898</v>
+      </c>
+      <c r="AI2" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="AG2" s="59">
-        <v>1234567898</v>
-      </c>
-      <c r="AH2" s="58" t="s">
+      <c r="AK2" s="58">
+        <v>84100</v>
+      </c>
+      <c r="AL2" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="AI2" s="58" t="s">
+      <c r="AM2" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="AJ2" s="58">
-        <v>84100</v>
-      </c>
-      <c r="AK2" s="58" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL2" s="58" t="s">
-        <v>389</v>
-      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46">
+        <v>12345678934</v>
+      </c>
+      <c r="C3" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D3" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="42">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46">
+        <v>12345678935</v>
+      </c>
+      <c r="C4" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D4" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P4" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46">
+        <v>12345678936</v>
+      </c>
+      <c r="C5" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D5" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46">
+        <v>12345678937</v>
+      </c>
+      <c r="C6" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D6" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="W6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y6" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB6" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46">
+        <v>12345678938</v>
+      </c>
+      <c r="C7" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D7" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y7" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB7" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46">
+        <v>12345678939</v>
+      </c>
+      <c r="C8" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D8" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="W8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB8" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46">
+        <v>12345678940</v>
+      </c>
+      <c r="C9" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D9" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="W9" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y9" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB9" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46">
+        <v>12345678947</v>
+      </c>
+      <c r="C10" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D10" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="W10" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y10" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46">
+        <v>12345678948</v>
+      </c>
+      <c r="C11" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D11" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="W11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y11" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="42">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46">
+        <v>12345678949</v>
+      </c>
+      <c r="C12" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D12" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="W12" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y12" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46">
+        <v>12345678950</v>
+      </c>
+      <c r="C13" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D13" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="60"/>
+      <c r="W13" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y13" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46">
+        <v>12345678951</v>
+      </c>
+      <c r="C14" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D14" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="W14" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="AG2" r:id="rId2" display="someone@gmail.com"/>
+    <hyperlink ref="AH2" r:id="rId2" display="someone@gmail.com"/>
+    <hyperlink ref="M3:M14" r:id="rId3" display="ab@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2681,10 +3623,10 @@
         <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>261</v>
@@ -2696,7 +3638,7 @@
         <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2704,13 +3646,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E2" s="42">
         <v>123456789</v>
@@ -2719,16 +3661,16 @@
         <v>198765432</v>
       </c>
       <c r="G2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2736,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E3" s="42">
         <v>123456790</v>
@@ -2745,7 +3687,7 @@
         <v>198765433</v>
       </c>
       <c r="H3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2753,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E4" s="42">
         <v>123456791</v>
@@ -2762,7 +3704,7 @@
         <v>198765434</v>
       </c>
       <c r="H4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E5" s="42">
         <v>123456792</v>
@@ -2779,7 +3721,7 @@
         <v>198765435</v>
       </c>
       <c r="H5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2787,7 +3729,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E6" s="42">
         <v>123456793</v>
@@ -2796,7 +3738,7 @@
         <v>198765436</v>
       </c>
       <c r="H6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2804,7 +3746,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E7" s="42">
         <v>123456794</v>
@@ -2813,7 +3755,7 @@
         <v>198765437</v>
       </c>
       <c r="H7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2825,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="O2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,34 +3801,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="62" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
@@ -2902,14 +3844,14 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="72" t="s">
+      <c r="O2" s="68"/>
+      <c r="P2" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="61"/>
+      <c r="Q2" s="68"/>
       <c r="R2" s="33" t="s">
         <v>148</v>
       </c>
@@ -2917,10 +3859,10 @@
       <c r="T2" s="22"/>
       <c r="U2" s="23"/>
       <c r="V2" s="36"/>
-      <c r="W2" s="60" t="s">
+      <c r="W2" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="X2" s="61"/>
+      <c r="X2" s="68"/>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2930,10 +3872,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="26" t="s">
         <v>6</v>
       </c>
@@ -2949,10 +3891,10 @@
       <c r="J3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="69"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="20" t="s">
         <v>57</v>
       </c>
@@ -2984,7 +3926,7 @@
         <v>65</v>
       </c>
       <c r="W3" s="55" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="X3" s="35" t="s">
         <v>211</v>
@@ -2997,7 +3939,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="71" t="s">
         <v>148</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -3043,7 +3985,7 @@
         <v>113</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>127</v>
@@ -3068,7 +4010,7 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -3107,8 +4049,8 @@
       <c r="Q5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R5" s="73" t="s">
-        <v>390</v>
+      <c r="R5" s="80" t="s">
+        <v>388</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>128</v>
@@ -3130,7 +4072,7 @@
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
@@ -3161,7 +4103,7 @@
       <c r="Q6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="73"/>
+      <c r="R6" s="80"/>
       <c r="T6" s="1" t="s">
         <v>139</v>
       </c>
@@ -3173,7 +4115,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C7" s="64"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
@@ -3198,7 +4140,7 @@
       <c r="Q7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R7" s="73"/>
+      <c r="R7" s="80"/>
       <c r="S7" s="1" t="s">
         <v>129</v>
       </c>
@@ -3213,7 +4155,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C8" s="64"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
@@ -3233,7 +4175,7 @@
       <c r="Q8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="73"/>
+      <c r="R8" s="80"/>
       <c r="T8" s="1" t="s">
         <v>133</v>
       </c>
@@ -3245,7 +4187,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C9" s="64"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
@@ -3266,7 +4208,7 @@
       <c r="Q9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="73"/>
+      <c r="R9" s="80"/>
       <c r="T9" s="1" t="s">
         <v>134</v>
       </c>
@@ -3275,7 +4217,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C10" s="64"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
@@ -3297,7 +4239,7 @@
       <c r="Q10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R10" s="73"/>
+      <c r="R10" s="80"/>
       <c r="T10" s="1" t="s">
         <v>135</v>
       </c>
@@ -3309,7 +4251,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C11" s="64"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
@@ -3340,7 +4282,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C12" s="65"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
@@ -3361,7 +4303,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="71" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -3394,7 +4336,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="64"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
@@ -3415,7 +4357,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="64"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3436,7 +4378,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C16" s="64"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -3454,7 +4396,7 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C17" s="64"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="7" t="s">
         <v>43</v>
       </c>
@@ -3469,7 +4411,7 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C18" s="64"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
@@ -3480,17 +4422,17 @@
         <v>81</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C19" s="64"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
@@ -3501,7 +4443,7 @@
         <v>82</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W19" s="34" t="s">
         <v>173</v>
@@ -3517,7 +4459,7 @@
         <v>83</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>192</v>
@@ -3540,7 +4482,7 @@
         <v>85</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>138</v>
@@ -3551,9 +4493,15 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C23" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="52" t="s">
         <v>138</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -3569,7 +4517,10 @@
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24" s="52" t="s">
-        <v>343</v>
+        <v>341</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>341</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>87</v>
@@ -3580,10 +4531,16 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>88</v>
@@ -3595,7 +4552,10 @@
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26" s="45" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>407</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>89</v>
@@ -3609,6 +4569,9 @@
       <c r="C27" s="45" t="s">
         <v>134</v>
       </c>
+      <c r="F27" s="64" t="s">
+        <v>134</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>90</v>
       </c>
@@ -3619,7 +4582,10 @@
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28" s="45" t="s">
-        <v>346</v>
+        <v>344</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>133</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>91</v>
@@ -3633,6 +4599,12 @@
         <v>163</v>
       </c>
       <c r="C29" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="66" t="s">
         <v>140</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -3764,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3875,7 +4847,7 @@
         <v>49</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O2" s="1">
         <v>127592368</v>
@@ -3925,7 +4897,7 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O3" s="1">
         <v>127592369</v>
@@ -3975,7 +4947,7 @@
         <v>49</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O4" s="1">
         <v>127592370</v>
@@ -4001,7 +4973,7 @@
         <v>38</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O5" s="1">
         <v>127592371</v>
@@ -4027,7 +4999,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O6" s="1">
         <v>127592372</v>
@@ -4053,7 +5025,7 @@
         <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O7" s="1">
         <v>127592373</v>
@@ -4079,7 +5051,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O8" s="1">
         <v>127592374</v>
@@ -4105,7 +5077,7 @@
         <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O9" s="1">
         <v>127592375</v>
@@ -4131,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O10" s="1">
         <v>127592376</v>
@@ -4163,7 +5135,7 @@
         <v>49</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O11" s="1">
         <v>127592377</v>
@@ -4195,7 +5167,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O12" s="1">
         <v>127592378</v>
@@ -4227,7 +5199,7 @@
         <v>49</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O13" s="1">
         <v>127592379</v>
@@ -4259,7 +5231,7 @@
         <v>49</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O14" s="1">
         <v>127592380</v>
@@ -4285,7 +5257,7 @@
         <v>38</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O15" s="1">
         <v>127592381</v>
@@ -4311,7 +5283,7 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O16" s="1">
         <v>127592382</v>
@@ -4337,7 +5309,7 @@
         <v>43</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O17" s="1">
         <v>127592383</v>
@@ -4380,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -4410,13 +5382,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>243</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4424,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>16</v>
@@ -4451,19 +5423,19 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M2" s="11">
         <v>165438896</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4471,13 +5443,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>17</v>
@@ -4498,19 +5470,19 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4518,13 +5490,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>17</v>
@@ -4545,19 +5517,19 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M4" s="11">
         <v>165438898</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4598,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -4628,13 +5600,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>243</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4642,22 +5614,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M2" s="11">
         <v>175438890</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4665,22 +5637,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M3" s="11">
         <v>175438891</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4688,22 +5660,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M4" s="11">
         <v>175438892</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4711,22 +5683,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M5" s="11">
         <v>175438893</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -4734,22 +5706,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M6" s="11">
         <v>175438894</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4757,22 +5729,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M7" s="11">
         <v>175438895</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4814,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -4844,13 +5816,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>243</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4858,22 +5830,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M2" s="11">
         <v>145438890</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4881,22 +5853,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M3" s="11">
         <v>145438891</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4904,22 +5876,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M4" s="11">
         <v>145438892</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4960,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -4990,13 +5962,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>243</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5004,28 +5976,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M2" s="11">
         <v>185438821</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5033,28 +6005,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M3" s="11">
         <v>185438822</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5062,28 +6034,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" t="s">
         <v>293</v>
-      </c>
-      <c r="K4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L4" t="s">
-        <v>295</v>
       </c>
       <c r="M4" s="11">
         <v>185438823</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5091,28 +6063,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M5" s="11">
         <v>185438824</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5151,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5164,10 +6136,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,7 +6221,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>85</v>
@@ -5287,19 +6259,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>66</v>
@@ -5310,17 +6282,14 @@
       <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>166</v>
@@ -5334,7 +6303,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>56</v>
@@ -5355,7 +6324,7 @@
         <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>135</v>
@@ -5375,7 +6344,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>56</v>
@@ -5394,9 +6363,6 @@
       </c>
       <c r="K5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>163</v>
@@ -5419,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>56</v>
@@ -5444,6 +6410,11 @@
       </c>
       <c r="P8" s="1" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" tabRatio="717" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="7" r:id="rId1"/>
@@ -2442,7 +2442,7 @@
   <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +3508,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -1089,9 +1089,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Lehman</t>
-  </si>
-  <si>
     <t>ISWARA 1.5</t>
   </si>
   <si>
@@ -1474,49 +1471,52 @@
     <t>Gear Problem</t>
   </si>
   <si>
-    <t>dll</t>
-  </si>
-  <si>
     <t>ab@gmail.com</t>
   </si>
   <si>
-    <t>TAA31</t>
-  </si>
-  <si>
-    <t>TAA32</t>
-  </si>
-  <si>
-    <t>TAA33</t>
-  </si>
-  <si>
-    <t>TAA34</t>
-  </si>
-  <si>
-    <t>TAA35</t>
-  </si>
-  <si>
-    <t>TAA36</t>
-  </si>
-  <si>
-    <t>TAA37</t>
-  </si>
-  <si>
-    <t>TAA44</t>
-  </si>
-  <si>
-    <t>TAA45</t>
-  </si>
-  <si>
-    <t>TAA46</t>
-  </si>
-  <si>
-    <t>TAA47</t>
-  </si>
-  <si>
-    <t>TAA48</t>
-  </si>
-  <si>
-    <t>TAA49</t>
+    <t>TAA106</t>
+  </si>
+  <si>
+    <t>TAA107</t>
+  </si>
+  <si>
+    <t>TAA108</t>
+  </si>
+  <si>
+    <t>TAA109</t>
+  </si>
+  <si>
+    <t>TAA110</t>
+  </si>
+  <si>
+    <t>TAA111</t>
+  </si>
+  <si>
+    <t>TAA112</t>
+  </si>
+  <si>
+    <t>TAA113</t>
+  </si>
+  <si>
+    <t>TAA114</t>
+  </si>
+  <si>
+    <t>Siti</t>
+  </si>
+  <si>
+    <t>Electrical issue</t>
+  </si>
+  <si>
+    <t>TAA119</t>
+  </si>
+  <si>
+    <t>TAA120</t>
+  </si>
+  <si>
+    <t>TAA121</t>
+  </si>
+  <si>
+    <t>TAA122</t>
   </si>
 </sst>
 </file>
@@ -2439,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,19 +2566,19 @@
         <v>145</v>
       </c>
       <c r="AG1" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AH1" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="AI1" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="AI1" s="48" t="s">
+      <c r="AJ1" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="AJ1" s="48" t="s">
+      <c r="AK1" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="AK1" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="AL1" s="48" t="s">
         <v>262</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>12345678952</v>
+        <v>123456790021</v>
       </c>
       <c r="C2" s="46">
         <v>123456788</v>
@@ -2601,10 +2601,10 @@
         <v>123456777</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>280</v>
+        <v>417</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>4</v>
@@ -2613,7 +2613,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>33</v>
@@ -2622,16 +2622,16 @@
         <v>58</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="42" t="s">
         <v>16</v>
@@ -2652,7 +2652,7 @@
         <v>17</v>
       </c>
       <c r="W2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y2" s="42" t="s">
         <v>66</v>
@@ -2661,34 +2661,34 @@
         <v>16</v>
       </c>
       <c r="AC2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD2" t="s">
         <v>284</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>285</v>
       </c>
-      <c r="AE2" t="s">
-        <v>286</v>
-      </c>
       <c r="AG2" s="58" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AH2" s="59">
         <v>1234567898</v>
       </c>
       <c r="AI2" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
         <v>384</v>
-      </c>
-      <c r="AJ2" s="58" t="s">
-        <v>385</v>
       </c>
       <c r="AK2" s="58">
         <v>84100</v>
       </c>
       <c r="AL2" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM2" s="58" t="s">
         <v>386</v>
-      </c>
-      <c r="AM2" s="58" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46">
-        <v>12345678934</v>
+        <v>123456790022</v>
       </c>
       <c r="C3" s="46">
         <v>123456788</v>
@@ -2705,10 +2705,10 @@
         <v>123456777</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>4</v>
@@ -2717,7 +2717,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>33</v>
@@ -2726,16 +2726,16 @@
         <v>58</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N3" s="42" t="s">
         <v>30</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q3" s="42" t="s">
         <v>17</v>
@@ -2756,7 +2756,7 @@
         <v>16</v>
       </c>
       <c r="W3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y3" s="42" t="s">
         <v>66</v>
@@ -2765,13 +2765,13 @@
         <v>16</v>
       </c>
       <c r="AC3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD3" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>285</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46">
-        <v>12345678935</v>
+        <v>123456790023</v>
       </c>
       <c r="C4" s="46">
         <v>123456788</v>
@@ -2788,10 +2788,10 @@
         <v>123456777</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>4</v>
@@ -2800,7 +2800,7 @@
         <v>95</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>33</v>
@@ -2809,16 +2809,16 @@
         <v>58</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N4" s="42" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="42" t="s">
         <v>16</v>
@@ -2839,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="W4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y4" s="42" t="s">
         <v>66</v>
@@ -2848,13 +2848,13 @@
         <v>16</v>
       </c>
       <c r="AC4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD4" t="s">
         <v>284</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>285</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46">
-        <v>12345678936</v>
+        <v>123456790024</v>
       </c>
       <c r="C5" s="46">
         <v>123456788</v>
@@ -2871,10 +2871,10 @@
         <v>123456777</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>4</v>
@@ -2883,7 +2883,7 @@
         <v>56</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J5" s="42" t="s">
         <v>33</v>
@@ -2892,16 +2892,16 @@
         <v>58</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>30</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P5" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="Q5" s="42" t="s">
         <v>17</v>
@@ -2922,7 +2922,7 @@
         <v>17</v>
       </c>
       <c r="W5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y5" s="42" t="s">
         <v>66</v>
@@ -2931,77 +2931,44 @@
         <v>16</v>
       </c>
       <c r="AC5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD5" t="s">
         <v>284</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>285</v>
       </c>
-      <c r="AE5" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
-        <v>5</v>
-      </c>
-      <c r="B6" s="46">
-        <v>12345678937</v>
-      </c>
-      <c r="C6" s="46">
-        <v>123456788</v>
-      </c>
-      <c r="D6" s="46">
-        <v>123456777</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="P6" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="W6" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y6" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB6" s="42" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="42"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="44"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="Y6" s="42"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="46">
-        <v>12345678938</v>
+        <v>12345679008</v>
       </c>
       <c r="C7" s="46">
         <v>123456788</v>
@@ -3010,19 +2977,19 @@
         <v>123456777</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>33</v>
@@ -3031,7 +2998,7 @@
         <v>58</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N7" s="42" t="s">
         <v>30</v>
@@ -3040,10 +3007,10 @@
         <v>163</v>
       </c>
       <c r="P7" s="54" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="W7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y7" s="42" t="s">
         <v>66</v>
@@ -3054,10 +3021,10 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="46">
-        <v>12345678939</v>
+        <v>12345679009</v>
       </c>
       <c r="C8" s="46">
         <v>123456788</v>
@@ -3066,19 +3033,19 @@
         <v>123456777</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>281</v>
+        <v>405</v>
       </c>
       <c r="J8" s="42" t="s">
         <v>33</v>
@@ -3087,7 +3054,7 @@
         <v>58</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N8" s="42" t="s">
         <v>30</v>
@@ -3096,10 +3063,10 @@
         <v>163</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y8" s="42" t="s">
         <v>66</v>
@@ -3110,10 +3077,10 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="46">
-        <v>12345678940</v>
+        <v>12345679010</v>
       </c>
       <c r="C9" s="46">
         <v>123456788</v>
@@ -3122,28 +3089,28 @@
         <v>123456777</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="42" t="s">
         <v>58</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N9" s="42" t="s">
         <v>30</v>
@@ -3152,10 +3119,10 @@
         <v>163</v>
       </c>
       <c r="P9" s="54" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="W9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y9" s="42" t="s">
         <v>66</v>
@@ -3166,10 +3133,10 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="46">
-        <v>12345678947</v>
+        <v>12345679011</v>
       </c>
       <c r="C10" s="46">
         <v>123456788</v>
@@ -3178,63 +3145,54 @@
         <v>123456777</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="P10" s="64" t="s">
+      <c r="O10" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="54" t="s">
         <v>132</v>
       </c>
       <c r="W10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y10" s="42" t="s">
         <v>66</v>
       </c>
       <c r="AB10" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="46">
-        <v>12345678948</v>
+        <v>12345679012</v>
       </c>
       <c r="C11" s="46">
         <v>123456788</v>
@@ -3243,19 +3201,19 @@
         <v>123456777</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>34</v>
@@ -3264,7 +3222,7 @@
         <v>59</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N11" s="42" t="s">
         <v>30</v>
@@ -3273,10 +3231,10 @@
         <v>129</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="W11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y11" s="42" t="s">
         <v>66</v>
@@ -3285,21 +3243,21 @@
         <v>16</v>
       </c>
       <c r="AC11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD11" t="s">
         <v>284</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>285</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="46">
-        <v>12345678949</v>
+        <v>12345679013</v>
       </c>
       <c r="C12" s="46">
         <v>123456788</v>
@@ -3308,16 +3266,16 @@
         <v>123456777</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I12" s="42" t="s">
         <v>404</v>
@@ -3329,7 +3287,7 @@
         <v>59</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N12" s="42" t="s">
         <v>30</v>
@@ -3338,10 +3296,10 @@
         <v>129</v>
       </c>
       <c r="P12" s="64" t="s">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="W12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y12" s="42" t="s">
         <v>66</v>
@@ -3350,21 +3308,21 @@
         <v>16</v>
       </c>
       <c r="AC12" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD12" t="s">
         <v>284</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>285</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="46">
-        <v>12345678950</v>
+        <v>12345679014</v>
       </c>
       <c r="C13" s="46">
         <v>123456788</v>
@@ -3373,28 +3331,28 @@
         <v>123456777</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>59</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N13" s="42" t="s">
         <v>30</v>
@@ -3402,12 +3360,11 @@
       <c r="O13" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="60"/>
+      <c r="P13" s="64" t="s">
+        <v>134</v>
+      </c>
       <c r="W13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y13" s="42" t="s">
         <v>66</v>
@@ -3416,21 +3373,21 @@
         <v>16</v>
       </c>
       <c r="AC13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD13" t="s">
         <v>284</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>285</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="46">
-        <v>12345678951</v>
+        <v>12345679015</v>
       </c>
       <c r="C14" s="46">
         <v>123456788</v>
@@ -3439,16 +3396,16 @@
         <v>123456777</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>404</v>
@@ -3460,43 +3417,109 @@
         <v>59</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N14" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="P14" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q14" s="1"/>
+      <c r="O14" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="60"/>
       <c r="W14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y14" s="42" t="s">
         <v>66</v>
       </c>
       <c r="AB14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
+        <v>13</v>
+      </c>
+      <c r="B15" s="46">
+        <v>12345679016</v>
+      </c>
+      <c r="C15" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D15" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="W15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y15" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB15" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="Q15" s="8"/>
-    </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="60"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
     <hyperlink ref="AH2" r:id="rId2" display="someone@gmail.com"/>
-    <hyperlink ref="M3:M14" r:id="rId3" display="ab@gmail.com"/>
+    <hyperlink ref="M3:M15" r:id="rId3" display="ab@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3623,10 +3646,10 @@
         <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>261</v>
@@ -3638,7 +3661,7 @@
         <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3646,13 +3669,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E2" s="42">
         <v>123456789</v>
@@ -3661,16 +3684,16 @@
         <v>198765432</v>
       </c>
       <c r="G2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" t="s">
         <v>361</v>
       </c>
-      <c r="H2" t="s">
-        <v>362</v>
-      </c>
       <c r="I2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3678,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E3" s="42">
         <v>123456790</v>
@@ -3687,7 +3710,7 @@
         <v>198765433</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3695,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4" s="42">
         <v>123456791</v>
@@ -3704,7 +3727,7 @@
         <v>198765434</v>
       </c>
       <c r="H4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3712,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E5" s="42">
         <v>123456792</v>
@@ -3721,7 +3744,7 @@
         <v>198765435</v>
       </c>
       <c r="H5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3729,7 +3752,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" s="42">
         <v>123456793</v>
@@ -3738,7 +3761,7 @@
         <v>198765436</v>
       </c>
       <c r="H6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3746,7 +3769,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E7" s="42">
         <v>123456794</v>
@@ -3755,7 +3778,7 @@
         <v>198765437</v>
       </c>
       <c r="H7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3926,7 +3949,7 @@
         <v>65</v>
       </c>
       <c r="W3" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X3" s="35" t="s">
         <v>211</v>
@@ -3985,7 +4008,7 @@
         <v>113</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>127</v>
@@ -4050,7 +4073,7 @@
         <v>118</v>
       </c>
       <c r="R5" s="80" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>128</v>
@@ -4422,10 +4445,10 @@
         <v>81</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>190</v>
@@ -4443,7 +4466,7 @@
         <v>82</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W19" s="34" t="s">
         <v>173</v>
@@ -4459,7 +4482,7 @@
         <v>83</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>192</v>
@@ -4482,7 +4505,7 @@
         <v>85</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>138</v>
@@ -4493,7 +4516,7 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>138</v>
@@ -4517,10 +4540,10 @@
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>87</v>
@@ -4531,10 +4554,10 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E25" s="62" t="s">
         <v>129</v>
@@ -4552,10 +4575,10 @@
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>89</v>
@@ -4582,7 +4605,7 @@
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F28" s="65" t="s">
         <v>133</v>
@@ -4847,7 +4870,7 @@
         <v>49</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O2" s="1">
         <v>127592368</v>
@@ -4897,7 +4920,7 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O3" s="1">
         <v>127592369</v>
@@ -4947,7 +4970,7 @@
         <v>49</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O4" s="1">
         <v>127592370</v>
@@ -4973,7 +4996,7 @@
         <v>38</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O5" s="1">
         <v>127592371</v>
@@ -4999,7 +5022,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O6" s="1">
         <v>127592372</v>
@@ -5025,7 +5048,7 @@
         <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O7" s="1">
         <v>127592373</v>
@@ -5051,7 +5074,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O8" s="1">
         <v>127592374</v>
@@ -5077,7 +5100,7 @@
         <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O9" s="1">
         <v>127592375</v>
@@ -5103,7 +5126,7 @@
         <v>43</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O10" s="1">
         <v>127592376</v>
@@ -5135,7 +5158,7 @@
         <v>49</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O11" s="1">
         <v>127592377</v>
@@ -5167,7 +5190,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O12" s="1">
         <v>127592378</v>
@@ -5199,7 +5222,7 @@
         <v>49</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O13" s="1">
         <v>127592379</v>
@@ -5231,7 +5254,7 @@
         <v>49</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O14" s="1">
         <v>127592380</v>
@@ -5257,7 +5280,7 @@
         <v>38</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O15" s="1">
         <v>127592381</v>
@@ -5283,7 +5306,7 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O16" s="1">
         <v>127592382</v>
@@ -5309,7 +5332,7 @@
         <v>43</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O17" s="1">
         <v>127592383</v>
@@ -5352,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -5382,13 +5405,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>243</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5396,13 +5419,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>16</v>
@@ -5423,19 +5446,19 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" t="s">
         <v>292</v>
-      </c>
-      <c r="L2" t="s">
-        <v>293</v>
       </c>
       <c r="M2" s="11">
         <v>165438896</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5443,13 +5466,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>17</v>
@@ -5470,19 +5493,19 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" t="s">
         <v>292</v>
       </c>
-      <c r="L3" t="s">
-        <v>293</v>
-      </c>
       <c r="M3" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5490,13 +5513,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>17</v>
@@ -5517,19 +5540,19 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" t="s">
         <v>292</v>
-      </c>
-      <c r="L4" t="s">
-        <v>293</v>
       </c>
       <c r="M4" s="11">
         <v>165438898</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5570,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -5600,13 +5623,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>243</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5614,22 +5637,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M2" s="11">
         <v>175438890</v>
       </c>
       <c r="N2" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5637,22 +5660,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M3" s="11">
         <v>175438891</v>
       </c>
       <c r="N3" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5660,22 +5683,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M4" s="11">
         <v>175438892</v>
       </c>
       <c r="N4" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5683,22 +5706,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M5" s="11">
         <v>175438893</v>
       </c>
       <c r="N5" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5706,22 +5729,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M6" s="11">
         <v>175438894</v>
       </c>
       <c r="N6" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5729,22 +5752,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M7" s="11">
         <v>175438895</v>
       </c>
       <c r="N7" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -5816,13 +5839,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>243</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5830,22 +5853,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M2" s="11">
         <v>145438890</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5853,22 +5876,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M3" s="11">
         <v>145438891</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5876,22 +5899,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M4" s="11">
         <v>145438892</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5932,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -5962,13 +5985,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>243</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5976,28 +5999,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" t="s">
         <v>292</v>
-      </c>
-      <c r="L2" t="s">
-        <v>293</v>
       </c>
       <c r="M2" s="11">
         <v>185438821</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6005,28 +6028,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" t="s">
         <v>292</v>
-      </c>
-      <c r="L3" t="s">
-        <v>293</v>
       </c>
       <c r="M3" s="11">
         <v>185438822</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -6034,28 +6057,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K4" t="s">
         <v>291</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>292</v>
-      </c>
-      <c r="L4" t="s">
-        <v>293</v>
       </c>
       <c r="M4" s="11">
         <v>185438823</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -6063,28 +6086,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K5" t="s">
+        <v>291</v>
+      </c>
+      <c r="L5" t="s">
         <v>292</v>
-      </c>
-      <c r="L5" t="s">
-        <v>293</v>
       </c>
       <c r="M5" s="11">
         <v>185438824</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6123,10 +6146,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>358</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6221,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>85</v>
@@ -6262,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>56</v>
@@ -6283,7 +6306,7 @@
         <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>135</v>
@@ -6303,7 +6326,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>56</v>
@@ -6324,7 +6347,7 @@
         <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>135</v>
@@ -6344,7 +6367,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>56</v>
@@ -6385,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>56</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -1507,16 +1507,16 @@
     <t>Electrical issue</t>
   </si>
   <si>
-    <t>TAA119</t>
-  </si>
-  <si>
-    <t>TAA120</t>
-  </si>
-  <si>
-    <t>TAA121</t>
-  </si>
-  <si>
-    <t>TAA122</t>
+    <t>TAA123</t>
+  </si>
+  <si>
+    <t>TAA124</t>
+  </si>
+  <si>
+    <t>TAA125</t>
+  </si>
+  <si>
+    <t>TAA126</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>123456790021</v>
+        <v>123456790025</v>
       </c>
       <c r="C2" s="46">
         <v>123456788</v>
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46">
-        <v>123456790022</v>
+        <v>123456790026</v>
       </c>
       <c r="C3" s="46">
         <v>123456788</v>
@@ -2779,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46">
-        <v>123456790023</v>
+        <v>123456790027</v>
       </c>
       <c r="C4" s="46">
         <v>123456788</v>
@@ -2862,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46">
-        <v>123456790024</v>
+        <v>123456790028</v>
       </c>
       <c r="C5" s="46">
         <v>123456788</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -1507,16 +1507,16 @@
     <t>Electrical issue</t>
   </si>
   <si>
-    <t>TAA123</t>
-  </si>
-  <si>
-    <t>TAA124</t>
-  </si>
-  <si>
-    <t>TAA125</t>
-  </si>
-  <si>
-    <t>TAA126</t>
+    <t>TAA140</t>
+  </si>
+  <si>
+    <t>TAA141</t>
+  </si>
+  <si>
+    <t>TAA142</t>
+  </si>
+  <si>
+    <t>TAA143</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>123456790025</v>
+        <v>123456790042</v>
       </c>
       <c r="C2" s="46">
         <v>123456788</v>
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46">
-        <v>123456790026</v>
+        <v>123456790043</v>
       </c>
       <c r="C3" s="46">
         <v>123456788</v>
@@ -2779,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46">
-        <v>123456790027</v>
+        <v>123456790044</v>
       </c>
       <c r="C4" s="46">
         <v>123456788</v>
@@ -2862,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46">
-        <v>123456790028</v>
+        <v>123456790045</v>
       </c>
       <c r="C5" s="46">
         <v>123456788</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="424">
   <si>
     <t>NO</t>
   </si>
@@ -1507,16 +1507,19 @@
     <t>Electrical issue</t>
   </si>
   <si>
-    <t>TAA140</t>
-  </si>
-  <si>
-    <t>TAA141</t>
-  </si>
-  <si>
-    <t>TAA142</t>
-  </si>
-  <si>
-    <t>TAA143</t>
+    <t>TOWING XYZ</t>
+  </si>
+  <si>
+    <t>TAA152</t>
+  </si>
+  <si>
+    <t>TAA153</t>
+  </si>
+  <si>
+    <t>TAA154</t>
+  </si>
+  <si>
+    <t>TAA155</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>123456790042</v>
+        <v>123456790050</v>
       </c>
       <c r="C2" s="46">
         <v>123456788</v>
@@ -2601,7 +2604,7 @@
         <v>123456777</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>417</v>
@@ -2655,7 +2658,7 @@
         <v>282</v>
       </c>
       <c r="Y2" s="42" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
       <c r="AB2" s="42" t="s">
         <v>16</v>
@@ -2696,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46">
-        <v>123456790043</v>
+        <v>123456790051</v>
       </c>
       <c r="C3" s="46">
         <v>123456788</v>
@@ -2705,7 +2708,7 @@
         <v>123456777</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>391</v>
@@ -2759,7 +2762,7 @@
         <v>282</v>
       </c>
       <c r="Y3" s="42" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
       <c r="AB3" s="42" t="s">
         <v>16</v>
@@ -2779,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46">
-        <v>123456790044</v>
+        <v>123456790052</v>
       </c>
       <c r="C4" s="46">
         <v>123456788</v>
@@ -2788,7 +2791,7 @@
         <v>123456777</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>392</v>
@@ -2842,7 +2845,7 @@
         <v>282</v>
       </c>
       <c r="Y4" s="42" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
       <c r="AB4" s="42" t="s">
         <v>16</v>
@@ -2862,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46">
-        <v>123456790045</v>
+        <v>123456790053</v>
       </c>
       <c r="C5" s="46">
         <v>123456788</v>
@@ -2871,7 +2874,7 @@
         <v>123456777</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>393</v>
@@ -2925,7 +2928,7 @@
         <v>282</v>
       </c>
       <c r="Y5" s="42" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
       <c r="AB5" s="42" t="s">
         <v>16</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -1474,18 +1474,6 @@
     <t>ab@gmail.com</t>
   </si>
   <si>
-    <t>TAA106</t>
-  </si>
-  <si>
-    <t>TAA107</t>
-  </si>
-  <si>
-    <t>TAA108</t>
-  </si>
-  <si>
-    <t>TAA109</t>
-  </si>
-  <si>
     <t>TAA110</t>
   </si>
   <si>
@@ -1510,16 +1498,28 @@
     <t>TOWING XYZ</t>
   </si>
   <si>
-    <t>TAA152</t>
-  </si>
-  <si>
-    <t>TAA153</t>
-  </si>
-  <si>
-    <t>TAA154</t>
-  </si>
-  <si>
-    <t>TAA155</t>
+    <t>TAA160</t>
+  </si>
+  <si>
+    <t>TAA161</t>
+  </si>
+  <si>
+    <t>TAA162</t>
+  </si>
+  <si>
+    <t>TAA163</t>
+  </si>
+  <si>
+    <t>TAA164</t>
+  </si>
+  <si>
+    <t>TAA165</t>
+  </si>
+  <si>
+    <t>TAA166</t>
+  </si>
+  <si>
+    <t>TAA167</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2445,7 @@
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>123456790050</v>
+        <v>123456790058</v>
       </c>
       <c r="C2" s="46">
         <v>123456788</v>
@@ -2604,10 +2604,10 @@
         <v>123456777</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>4</v>
@@ -2658,7 +2658,7 @@
         <v>282</v>
       </c>
       <c r="Y2" s="42" t="s">
-        <v>419</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="42" t="s">
         <v>16</v>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46">
-        <v>123456790051</v>
+        <v>123456790059</v>
       </c>
       <c r="C3" s="46">
         <v>123456788</v>
@@ -2708,7 +2708,7 @@
         <v>123456777</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>391</v>
@@ -2762,7 +2762,7 @@
         <v>282</v>
       </c>
       <c r="Y3" s="42" t="s">
-        <v>419</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="42" t="s">
         <v>16</v>
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46">
-        <v>123456790052</v>
+        <v>123456790060</v>
       </c>
       <c r="C4" s="46">
         <v>123456788</v>
@@ -2791,7 +2791,7 @@
         <v>123456777</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>392</v>
@@ -2845,7 +2845,7 @@
         <v>282</v>
       </c>
       <c r="Y4" s="42" t="s">
-        <v>419</v>
+        <v>66</v>
       </c>
       <c r="AB4" s="42" t="s">
         <v>16</v>
@@ -2865,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46">
-        <v>123456790053</v>
+        <v>123456790061</v>
       </c>
       <c r="C5" s="46">
         <v>123456788</v>
@@ -2874,7 +2874,7 @@
         <v>123456777</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>393</v>
@@ -2904,7 +2904,7 @@
         <v>281</v>
       </c>
       <c r="P5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q5" s="42" t="s">
         <v>17</v>
@@ -2928,7 +2928,7 @@
         <v>282</v>
       </c>
       <c r="Y5" s="42" t="s">
-        <v>419</v>
+        <v>66</v>
       </c>
       <c r="AB5" s="42" t="s">
         <v>16</v>
@@ -2944,34 +2944,67 @@
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="44"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="Y6" s="42"/>
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46">
+        <v>123456790062</v>
+      </c>
+      <c r="C6" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D6" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="W6" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y6" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB6" s="42" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="46">
-        <v>12345679008</v>
+        <v>123456790063</v>
       </c>
       <c r="C7" s="46">
         <v>123456788</v>
@@ -2980,19 +3013,19 @@
         <v>123456777</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>280</v>
+        <v>405</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>33</v>
@@ -3010,13 +3043,13 @@
         <v>163</v>
       </c>
       <c r="P7" s="54" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="W7" t="s">
         <v>282</v>
       </c>
       <c r="Y7" s="42" t="s">
-        <v>66</v>
+        <v>415</v>
       </c>
       <c r="AB7" s="42" t="s">
         <v>17</v>
@@ -3024,10 +3057,10 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="46">
-        <v>12345679009</v>
+        <v>123456790064</v>
       </c>
       <c r="C8" s="46">
         <v>123456788</v>
@@ -3036,19 +3069,19 @@
         <v>123456777</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>405</v>
+        <v>280</v>
       </c>
       <c r="J8" s="42" t="s">
         <v>33</v>
@@ -3066,13 +3099,13 @@
         <v>163</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W8" t="s">
         <v>282</v>
       </c>
       <c r="Y8" s="42" t="s">
-        <v>66</v>
+        <v>415</v>
       </c>
       <c r="AB8" s="42" t="s">
         <v>17</v>
@@ -3080,10 +3113,10 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="46">
-        <v>12345679010</v>
+        <v>123456790065</v>
       </c>
       <c r="C9" s="46">
         <v>123456788</v>
@@ -3092,22 +3125,22 @@
         <v>123456777</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>280</v>
+        <v>405</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="42" t="s">
         <v>58</v>
@@ -3122,73 +3155,35 @@
         <v>163</v>
       </c>
       <c r="P9" s="54" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="W9" t="s">
         <v>282</v>
       </c>
       <c r="Y9" s="42" t="s">
-        <v>66</v>
+        <v>415</v>
       </c>
       <c r="AB9" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
-        <v>8</v>
-      </c>
-      <c r="B10" s="46">
-        <v>12345679011</v>
-      </c>
-      <c r="C10" s="46">
-        <v>123456788</v>
-      </c>
-      <c r="D10" s="46">
-        <v>123456777</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="P10" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="W10" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y10" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB10" s="42" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="42"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Y10" s="42"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -3204,7 +3199,7 @@
         <v>123456777</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>398</v>
@@ -3269,7 +3264,7 @@
         <v>123456777</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>399</v>
@@ -3334,7 +3329,7 @@
         <v>123456777</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>400</v>
@@ -3399,7 +3394,7 @@
         <v>123456777</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>401</v>
@@ -3465,7 +3460,7 @@
         <v>123456777</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>402</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -1498,28 +1498,28 @@
     <t>TOWING XYZ</t>
   </si>
   <si>
-    <t>TAA160</t>
-  </si>
-  <si>
-    <t>TAA161</t>
-  </si>
-  <si>
-    <t>TAA162</t>
-  </si>
-  <si>
-    <t>TAA163</t>
-  </si>
-  <si>
-    <t>TAA164</t>
-  </si>
-  <si>
-    <t>TAA165</t>
-  </si>
-  <si>
-    <t>TAA166</t>
-  </si>
-  <si>
-    <t>TAA167</t>
+    <t>TAA186</t>
+  </si>
+  <si>
+    <t>TAA187</t>
+  </si>
+  <si>
+    <t>TAA188</t>
+  </si>
+  <si>
+    <t>TAA189</t>
+  </si>
+  <si>
+    <t>TAA190</t>
+  </si>
+  <si>
+    <t>TAA191</t>
+  </si>
+  <si>
+    <t>TAA192</t>
+  </si>
+  <si>
+    <t>TAA193</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>123456790058</v>
+        <v>123456790076</v>
       </c>
       <c r="C2" s="46">
         <v>123456788</v>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46">
-        <v>123456790059</v>
+        <v>123456790077</v>
       </c>
       <c r="C3" s="46">
         <v>123456788</v>
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46">
-        <v>123456790060</v>
+        <v>123456790078</v>
       </c>
       <c r="C4" s="46">
         <v>123456788</v>
@@ -2865,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46">
-        <v>123456790061</v>
+        <v>123456790079</v>
       </c>
       <c r="C5" s="46">
         <v>123456788</v>
@@ -2948,7 +2948,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="46">
-        <v>123456790062</v>
+        <v>123456790080</v>
       </c>
       <c r="C6" s="46">
         <v>123456788</v>
@@ -3004,7 +3004,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="46">
-        <v>123456790063</v>
+        <v>123456790081</v>
       </c>
       <c r="C7" s="46">
         <v>123456788</v>
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="46">
-        <v>123456790064</v>
+        <v>123456790082</v>
       </c>
       <c r="C8" s="46">
         <v>123456788</v>
@@ -3116,7 +3116,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="46">
-        <v>123456790065</v>
+        <v>123456790083</v>
       </c>
       <c r="C9" s="46">
         <v>123456788</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -1474,18 +1474,6 @@
     <t>ab@gmail.com</t>
   </si>
   <si>
-    <t>TAA110</t>
-  </si>
-  <si>
-    <t>TAA111</t>
-  </si>
-  <si>
-    <t>TAA112</t>
-  </si>
-  <si>
-    <t>TAA113</t>
-  </si>
-  <si>
     <t>TAA114</t>
   </si>
   <si>
@@ -1498,28 +1486,40 @@
     <t>TOWING XYZ</t>
   </si>
   <si>
-    <t>TAA186</t>
-  </si>
-  <si>
-    <t>TAA187</t>
-  </si>
-  <si>
-    <t>TAA188</t>
-  </si>
-  <si>
-    <t>TAA189</t>
-  </si>
-  <si>
-    <t>TAA190</t>
-  </si>
-  <si>
-    <t>TAA191</t>
-  </si>
-  <si>
-    <t>TAA192</t>
-  </si>
-  <si>
-    <t>TAA193</t>
+    <t>TAA230</t>
+  </si>
+  <si>
+    <t>TAA231</t>
+  </si>
+  <si>
+    <t>TAA232</t>
+  </si>
+  <si>
+    <t>TAA233</t>
+  </si>
+  <si>
+    <t>TAA234</t>
+  </si>
+  <si>
+    <t>TAA235</t>
+  </si>
+  <si>
+    <t>TAA236</t>
+  </si>
+  <si>
+    <t>TAA237</t>
+  </si>
+  <si>
+    <t>TAA238</t>
+  </si>
+  <si>
+    <t>TAA239</t>
+  </si>
+  <si>
+    <t>TAA240</t>
+  </si>
+  <si>
+    <t>TAA241</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2445,7 @@
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>123456790076</v>
+        <v>123456790120</v>
       </c>
       <c r="C2" s="46">
         <v>123456788</v>
@@ -2604,10 +2604,10 @@
         <v>123456777</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>4</v>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46">
-        <v>123456790077</v>
+        <v>123456790121</v>
       </c>
       <c r="C3" s="46">
         <v>123456788</v>
@@ -2708,7 +2708,7 @@
         <v>123456777</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>391</v>
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46">
-        <v>123456790078</v>
+        <v>123456790122</v>
       </c>
       <c r="C4" s="46">
         <v>123456788</v>
@@ -2791,7 +2791,7 @@
         <v>123456777</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>392</v>
@@ -2865,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46">
-        <v>123456790079</v>
+        <v>123456790123</v>
       </c>
       <c r="C5" s="46">
         <v>123456788</v>
@@ -2874,7 +2874,7 @@
         <v>123456777</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>393</v>
@@ -2904,7 +2904,7 @@
         <v>281</v>
       </c>
       <c r="P5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="42" t="s">
         <v>17</v>
@@ -2948,7 +2948,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="46">
-        <v>123456790080</v>
+        <v>123456790124</v>
       </c>
       <c r="C6" s="46">
         <v>123456788</v>
@@ -2957,7 +2957,7 @@
         <v>123456777</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>394</v>
@@ -2993,7 +2993,7 @@
         <v>282</v>
       </c>
       <c r="Y6" s="42" t="s">
-        <v>415</v>
+        <v>66</v>
       </c>
       <c r="AB6" s="42" t="s">
         <v>17</v>
@@ -3004,7 +3004,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="46">
-        <v>123456790081</v>
+        <v>123456790125</v>
       </c>
       <c r="C7" s="46">
         <v>123456788</v>
@@ -3013,7 +3013,7 @@
         <v>123456777</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>395</v>
@@ -3049,7 +3049,7 @@
         <v>282</v>
       </c>
       <c r="Y7" s="42" t="s">
-        <v>415</v>
+        <v>66</v>
       </c>
       <c r="AB7" s="42" t="s">
         <v>17</v>
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="46">
-        <v>123456790082</v>
+        <v>123456790126</v>
       </c>
       <c r="C8" s="46">
         <v>123456788</v>
@@ -3069,7 +3069,7 @@
         <v>123456777</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>396</v>
@@ -3105,7 +3105,7 @@
         <v>282</v>
       </c>
       <c r="Y8" s="42" t="s">
-        <v>415</v>
+        <v>66</v>
       </c>
       <c r="AB8" s="42" t="s">
         <v>17</v>
@@ -3116,7 +3116,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="46">
-        <v>123456790083</v>
+        <v>123456790127</v>
       </c>
       <c r="C9" s="46">
         <v>123456788</v>
@@ -3125,7 +3125,7 @@
         <v>123456777</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>397</v>
@@ -3161,36 +3161,83 @@
         <v>282</v>
       </c>
       <c r="Y9" s="42" t="s">
-        <v>415</v>
+        <v>66</v>
       </c>
       <c r="AB9" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Y10" s="42"/>
+      <c r="A10" s="42">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46">
+        <v>123456790128</v>
+      </c>
+      <c r="C10" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="D10" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="W10" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y10" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="46">
-        <v>12345679012</v>
+        <v>123456790129</v>
       </c>
       <c r="C11" s="46">
         <v>123456788</v>
@@ -3199,19 +3246,19 @@
         <v>123456777</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>34</v>
@@ -3229,13 +3276,13 @@
         <v>129</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>132</v>
+        <v>406</v>
       </c>
       <c r="W11" t="s">
         <v>282</v>
       </c>
       <c r="Y11" s="42" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="AB11" s="42" t="s">
         <v>16</v>
@@ -3252,10 +3299,10 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="46">
-        <v>12345679013</v>
+        <v>123456790130</v>
       </c>
       <c r="C12" s="46">
         <v>123456788</v>
@@ -3264,19 +3311,19 @@
         <v>123456777</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>34</v>
@@ -3294,13 +3341,13 @@
         <v>129</v>
       </c>
       <c r="P12" s="64" t="s">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="W12" t="s">
         <v>282</v>
       </c>
       <c r="Y12" s="42" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="AB12" s="42" t="s">
         <v>16</v>
@@ -3317,10 +3364,10 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="46">
-        <v>12345679014</v>
+        <v>123456790131</v>
       </c>
       <c r="C13" s="46">
         <v>123456788</v>
@@ -3329,22 +3376,22 @@
         <v>123456777</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>59</v>
@@ -3358,14 +3405,15 @@
       <c r="O13" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="64" t="s">
-        <v>134</v>
-      </c>
+      <c r="P13" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="60"/>
       <c r="W13" t="s">
         <v>282</v>
       </c>
       <c r="Y13" s="42" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="AB13" s="42" t="s">
         <v>16</v>
@@ -3381,70 +3429,23 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
-        <v>12</v>
-      </c>
-      <c r="B14" s="46">
-        <v>12345679015</v>
-      </c>
-      <c r="C14" s="46">
-        <v>123456788</v>
-      </c>
-      <c r="D14" s="46">
-        <v>123456777</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="N14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="P14" s="65" t="s">
-        <v>133</v>
-      </c>
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="65"/>
       <c r="Q14" s="60"/>
-      <c r="W14" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y14" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB14" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>285</v>
-      </c>
+      <c r="Y14" s="42"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
@@ -3460,7 +3461,7 @@
         <v>123456777</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>402</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="423">
   <si>
     <t>NO</t>
   </si>
@@ -1483,43 +1483,40 @@
     <t>Electrical issue</t>
   </si>
   <si>
-    <t>TOWING XYZ</t>
-  </si>
-  <si>
-    <t>TAA230</t>
-  </si>
-  <si>
-    <t>TAA231</t>
-  </si>
-  <si>
-    <t>TAA232</t>
-  </si>
-  <si>
-    <t>TAA233</t>
-  </si>
-  <si>
-    <t>TAA234</t>
-  </si>
-  <si>
-    <t>TAA235</t>
-  </si>
-  <si>
-    <t>TAA236</t>
-  </si>
-  <si>
-    <t>TAA237</t>
-  </si>
-  <si>
-    <t>TAA238</t>
-  </si>
-  <si>
-    <t>TAA239</t>
-  </si>
-  <si>
-    <t>TAA240</t>
-  </si>
-  <si>
-    <t>TAA241</t>
+    <t>TAA255</t>
+  </si>
+  <si>
+    <t>TAA256</t>
+  </si>
+  <si>
+    <t>TAA257</t>
+  </si>
+  <si>
+    <t>TAA258</t>
+  </si>
+  <si>
+    <t>TAA259</t>
+  </si>
+  <si>
+    <t>TAA260</t>
+  </si>
+  <si>
+    <t>TAA261</t>
+  </si>
+  <si>
+    <t>TAA262</t>
+  </si>
+  <si>
+    <t>TAA263</t>
+  </si>
+  <si>
+    <t>TAA264</t>
+  </si>
+  <si>
+    <t>TAA265</t>
+  </si>
+  <si>
+    <t>TAA266</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46">
-        <v>123456790120</v>
+        <v>123456790144</v>
       </c>
       <c r="C2" s="46">
         <v>123456788</v>
@@ -2604,7 +2601,7 @@
         <v>123456777</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>409</v>
@@ -2699,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46">
-        <v>123456790121</v>
+        <v>123456790145</v>
       </c>
       <c r="C3" s="46">
         <v>123456788</v>
@@ -2708,7 +2705,7 @@
         <v>123456777</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>391</v>
@@ -2782,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46">
-        <v>123456790122</v>
+        <v>123456790146</v>
       </c>
       <c r="C4" s="46">
         <v>123456788</v>
@@ -2791,7 +2788,7 @@
         <v>123456777</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>392</v>
@@ -2865,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46">
-        <v>123456790123</v>
+        <v>123456790147</v>
       </c>
       <c r="C5" s="46">
         <v>123456788</v>
@@ -2874,7 +2871,7 @@
         <v>123456777</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>393</v>
@@ -2948,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="46">
-        <v>123456790124</v>
+        <v>123456790148</v>
       </c>
       <c r="C6" s="46">
         <v>123456788</v>
@@ -2957,7 +2954,7 @@
         <v>123456777</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>394</v>
@@ -3004,7 +3001,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="46">
-        <v>123456790125</v>
+        <v>123456790149</v>
       </c>
       <c r="C7" s="46">
         <v>123456788</v>
@@ -3013,7 +3010,7 @@
         <v>123456777</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>395</v>
@@ -3060,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="46">
-        <v>123456790126</v>
+        <v>123456790150</v>
       </c>
       <c r="C8" s="46">
         <v>123456788</v>
@@ -3069,7 +3066,7 @@
         <v>123456777</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>396</v>
@@ -3116,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="46">
-        <v>123456790127</v>
+        <v>123456790151</v>
       </c>
       <c r="C9" s="46">
         <v>123456788</v>
@@ -3125,7 +3122,7 @@
         <v>123456777</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>397</v>
@@ -3172,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="46">
-        <v>123456790128</v>
+        <v>123456790152</v>
       </c>
       <c r="C10" s="46">
         <v>123456788</v>
@@ -3181,7 +3178,7 @@
         <v>123456777</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>398</v>
@@ -3217,7 +3214,7 @@
         <v>282</v>
       </c>
       <c r="Y10" s="42" t="s">
-        <v>411</v>
+        <v>66</v>
       </c>
       <c r="AB10" s="42" t="s">
         <v>16</v>
@@ -3237,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="46">
-        <v>123456790129</v>
+        <v>123456790153</v>
       </c>
       <c r="C11" s="46">
         <v>123456788</v>
@@ -3246,7 +3243,7 @@
         <v>123456777</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>399</v>
@@ -3282,7 +3279,7 @@
         <v>282</v>
       </c>
       <c r="Y11" s="42" t="s">
-        <v>411</v>
+        <v>66</v>
       </c>
       <c r="AB11" s="42" t="s">
         <v>16</v>
@@ -3302,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="46">
-        <v>123456790130</v>
+        <v>123456790154</v>
       </c>
       <c r="C12" s="46">
         <v>123456788</v>
@@ -3311,7 +3308,7 @@
         <v>123456777</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>400</v>
@@ -3347,7 +3344,7 @@
         <v>282</v>
       </c>
       <c r="Y12" s="42" t="s">
-        <v>411</v>
+        <v>66</v>
       </c>
       <c r="AB12" s="42" t="s">
         <v>16</v>
@@ -3367,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="46">
-        <v>123456790131</v>
+        <v>123456790155</v>
       </c>
       <c r="C13" s="46">
         <v>123456788</v>
@@ -3376,7 +3373,7 @@
         <v>123456777</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>401</v>
@@ -3413,7 +3410,7 @@
         <v>282</v>
       </c>
       <c r="Y13" s="42" t="s">
-        <v>411</v>
+        <v>66</v>
       </c>
       <c r="AB13" s="42" t="s">
         <v>16</v>

--- a/ATA_Upload/TestData_ATA.xlsx
+++ b/ATA_Upload/TestData_ATA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="429">
   <si>
     <t>NO</t>
   </si>
@@ -1483,40 +1483,58 @@
     <t>Electrical issue</t>
   </si>
   <si>
-    <t>TAA255</t>
-  </si>
-  <si>
-    <t>TAA256</t>
-  </si>
-  <si>
-    <t>TAA257</t>
-  </si>
-  <si>
-    <t>TAA258</t>
-  </si>
-  <si>
-    <t>TAA259</t>
-  </si>
-  <si>
-    <t>TAA260</t>
-  </si>
-  <si>
-    <t>TAA261</t>
-  </si>
-  <si>
-    <t>TAA262</t>
-  </si>
-  <si>
-    <t>TAA263</t>
-  </si>
-  <si>
-    <t>TAA264</t>
-  </si>
-  <si>
-    <t>TAA265</t>
-  </si>
-  <si>
-    <t>TAA266</t>
+    <t>case</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>WXM2211</t>
+  </si>
+  <si>
+    <t>Bengkel Setia</t>
+  </si>
+  <si>
+    <t>Fordcon Motor Works Sdn Bhd</t>
+  </si>
+  <si>
+    <t>TAA303</t>
+  </si>
+  <si>
+    <t>TAA304</t>
+  </si>
+  <si>
+    <t>TAA305</t>
+  </si>
+  <si>
+    <t>TAA306</t>
+  </si>
+  <si>
+    <t>TAA307</t>
+  </si>
+  <si>
+    <t>TAA308</t>
+  </si>
+  <si>
+    <t>TAA309</t>
+  </si>
+  <si>
+    <t>TAA310</t>
+  </si>
+  <si>
+    <t>TAA311</t>
+  </si>
+  <si>
+    <t>TAA312</t>
+  </si>
+  <si>
+    <t>TAA313</t>
+  </si>
+  <si>
+    <t>TAA314</t>
   </si>
 </sst>
 </file>
@@ -2439,208 +2457,212 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="N1" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="S1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="U1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="V1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="W1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="X1" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Z1" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AA1" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AB1" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AC1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AD1" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AE1" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AH1" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AI1" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="AI1" s="48" t="s">
+      <c r="AJ1" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="AJ1" s="48" t="s">
+      <c r="AK1" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="AK1" s="48" t="s">
+      <c r="AL1" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="AL1" s="48" t="s">
+      <c r="AM1" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="AM1" s="48" t="s">
+      <c r="AN1" s="48" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="46">
-        <v>123456790144</v>
+      <c r="B2" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C2" s="46">
+        <v>123456790181</v>
+      </c>
+      <c r="D2" s="46">
         <v>123456788</v>
       </c>
-      <c r="D2" s="46">
+      <c r="E2" s="46">
         <v>123456777</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>411</v>
-      </c>
       <c r="F2" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="H2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="I2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="J2" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="K2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="L2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="N2" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="O2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="P2" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="Q2" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="R2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="S2" s="42" t="s">
         <v>17</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>16</v>
       </c>
       <c r="T2" s="42" t="s">
         <v>16</v>
@@ -2649,102 +2671,105 @@
         <v>16</v>
       </c>
       <c r="V2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>282</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Z2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AC2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>283</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>284</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>285</v>
       </c>
-      <c r="AG2" s="58" t="s">
+      <c r="AH2" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="AH2" s="59">
+      <c r="AI2" s="59">
         <v>1234567898</v>
       </c>
-      <c r="AI2" s="58" t="s">
+      <c r="AJ2" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="AJ2" s="58" t="s">
+      <c r="AK2" s="58" t="s">
         <v>384</v>
       </c>
-      <c r="AK2" s="58">
+      <c r="AL2" s="58">
         <v>84100</v>
       </c>
-      <c r="AL2" s="58" t="s">
+      <c r="AM2" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="AM2" s="58" t="s">
+      <c r="AN2" s="58" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="46">
-        <v>123456790145</v>
+      <c r="B3" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C3" s="46">
+        <v>123456790182</v>
+      </c>
+      <c r="D3" s="46">
         <v>123456788</v>
       </c>
-      <c r="D3" s="46">
+      <c r="E3" s="46">
         <v>123456777</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>412</v>
-      </c>
       <c r="F3" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="H3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="I3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="J3" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="K3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="L3" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="N3" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="O3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="P3" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>294</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="S3" s="42" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="42" t="s">
         <v>17</v>
@@ -2753,772 +2778,919 @@
         <v>17</v>
       </c>
       <c r="V3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>282</v>
       </c>
-      <c r="Y3" s="42" t="s">
+      <c r="Z3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AC3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>283</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>284</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="46">
-        <v>123456790146</v>
+      <c r="B4" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C4" s="46">
+        <v>123456790183</v>
+      </c>
+      <c r="D4" s="46">
         <v>123456788</v>
       </c>
-      <c r="D4" s="46">
+      <c r="E4" s="46">
         <v>123456777</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>413</v>
-      </c>
       <c r="F4" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="H4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="I4" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="J4" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="K4" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="L4" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="N4" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="O4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="P4" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>296</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="R4" s="42" t="s">
         <v>16</v>
-      </c>
-      <c r="R4" s="42" t="s">
-        <v>17</v>
       </c>
       <c r="S4" s="42" t="s">
         <v>17</v>
       </c>
       <c r="T4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="V4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="42" t="s">
+      <c r="W4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>282</v>
       </c>
-      <c r="Y4" s="42" t="s">
+      <c r="Z4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="42" t="s">
+      <c r="AC4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>283</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>284</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AH4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="46">
-        <v>123456790147</v>
+      <c r="B5" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C5" s="46">
+        <v>123456790184</v>
+      </c>
+      <c r="D5" s="46">
         <v>123456788</v>
       </c>
-      <c r="D5" s="46">
+      <c r="E5" s="46">
         <v>123456777</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>414</v>
-      </c>
       <c r="F5" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="I5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="J5" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="K5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="L5" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="N5" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="O5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="P5" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>410</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="R5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="S5" s="42" t="s">
         <v>16</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>17</v>
       </c>
       <c r="T5" s="42" t="s">
         <v>17</v>
       </c>
       <c r="U5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="W5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>282</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Z5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AC5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>283</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>284</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="46">
-        <v>123456790148</v>
+      <c r="B6" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C6" s="46">
+        <v>123456790185</v>
+      </c>
+      <c r="D6" s="46">
         <v>123456788</v>
       </c>
-      <c r="D6" s="46">
+      <c r="E6" s="46">
         <v>123456777</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>415</v>
-      </c>
       <c r="F6" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="H6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="I6" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="J6" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="K6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="L6" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="N6" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="O6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="P6" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="P6" s="54" t="s">
+      <c r="Q6" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>282</v>
       </c>
-      <c r="Y6" s="42" t="s">
+      <c r="Z6" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB6" s="42" t="s">
+      <c r="AC6" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>6</v>
       </c>
-      <c r="B7" s="46">
-        <v>123456790149</v>
+      <c r="B7" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C7" s="46">
+        <v>123456790186</v>
+      </c>
+      <c r="D7" s="46">
         <v>123456788</v>
       </c>
-      <c r="D7" s="46">
+      <c r="E7" s="46">
         <v>123456777</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>416</v>
-      </c>
       <c r="F7" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="H7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="I7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="J7" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="K7" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="L7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="N7" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="O7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="53" t="s">
+      <c r="P7" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="Q7" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>282</v>
       </c>
-      <c r="Y7" s="42" t="s">
+      <c r="Z7" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB7" s="42" t="s">
+      <c r="AC7" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="46">
-        <v>123456790150</v>
+      <c r="B8" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C8" s="46">
+        <v>123456790187</v>
+      </c>
+      <c r="D8" s="46">
         <v>123456788</v>
       </c>
-      <c r="D8" s="46">
+      <c r="E8" s="46">
         <v>123456777</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>417</v>
-      </c>
       <c r="F8" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="H8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="I8" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="J8" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="K8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="L8" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="N8" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="O8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="53" t="s">
+      <c r="P8" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="Q8" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>282</v>
       </c>
-      <c r="Y8" s="42" t="s">
+      <c r="Z8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB8" s="42" t="s">
+      <c r="AC8" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>8</v>
       </c>
-      <c r="B9" s="46">
-        <v>123456790151</v>
+      <c r="B9" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C9" s="46">
+        <v>123456790188</v>
+      </c>
+      <c r="D9" s="46">
         <v>123456788</v>
       </c>
-      <c r="D9" s="46">
+      <c r="E9" s="46">
         <v>123456777</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>418</v>
-      </c>
       <c r="F9" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="H9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="I9" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="J9" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="K9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="L9" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="N9" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="O9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="P9" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="Q9" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>282</v>
       </c>
-      <c r="Y9" s="42" t="s">
+      <c r="Z9" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB9" s="42" t="s">
+      <c r="AC9" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>9</v>
       </c>
-      <c r="B10" s="46">
-        <v>123456790152</v>
+      <c r="B10" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C10" s="46">
+        <v>123456790189</v>
+      </c>
+      <c r="D10" s="46">
         <v>123456788</v>
       </c>
-      <c r="D10" s="46">
+      <c r="E10" s="46">
         <v>123456777</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>419</v>
-      </c>
       <c r="F10" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="H10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="I10" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="J10" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="K10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="L10" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="N10" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="O10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="62" t="s">
+      <c r="P10" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="64" t="s">
+      <c r="Q10" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>282</v>
       </c>
-      <c r="Y10" s="42" t="s">
+      <c r="Z10" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB10" s="42" t="s">
+      <c r="AC10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>283</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>284</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>10</v>
       </c>
-      <c r="B11" s="46">
-        <v>123456790153</v>
+      <c r="B11" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C11" s="46">
+        <v>123456790190</v>
+      </c>
+      <c r="D11" s="46">
         <v>123456788</v>
       </c>
-      <c r="D11" s="46">
+      <c r="E11" s="46">
         <v>123456777</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>420</v>
-      </c>
       <c r="F11" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="G11" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="H11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="I11" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="J11" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="K11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="L11" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="N11" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="O11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="62" t="s">
+      <c r="P11" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="64" t="s">
+      <c r="Q11" s="64" t="s">
         <v>406</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>282</v>
       </c>
-      <c r="Y11" s="42" t="s">
+      <c r="Z11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB11" s="42" t="s">
+      <c r="AC11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>283</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>284</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>11</v>
       </c>
-      <c r="B12" s="46">
-        <v>123456790154</v>
+      <c r="B12" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C12" s="46">
+        <v>123456790191</v>
+      </c>
+      <c r="D12" s="46">
         <v>123456788</v>
       </c>
-      <c r="D12" s="46">
+      <c r="E12" s="46">
         <v>123456777</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>421</v>
-      </c>
       <c r="F12" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="H12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="I12" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="J12" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="K12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="L12" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="N12" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="O12" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="62" t="s">
+      <c r="P12" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P12" s="64" t="s">
+      <c r="Q12" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>282</v>
       </c>
-      <c r="Y12" s="42" t="s">
+      <c r="Z12" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB12" s="42" t="s">
+      <c r="AC12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>283</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>284</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>12</v>
       </c>
-      <c r="B13" s="46">
-        <v>123456790155</v>
+      <c r="B13" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C13" s="46">
+        <v>123456790192</v>
+      </c>
+      <c r="D13" s="46">
         <v>123456788</v>
       </c>
-      <c r="D13" s="46">
+      <c r="E13" s="46">
         <v>123456777</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>422</v>
-      </c>
       <c r="F13" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="H13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="I13" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="J13" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="K13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="L13" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="N13" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="O13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="62" t="s">
+      <c r="P13" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="Q13" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="Q13" s="60"/>
-      <c r="W13" t="s">
+      <c r="R13" s="60"/>
+      <c r="X13" t="s">
         <v>282</v>
       </c>
-      <c r="Y13" s="42" t="s">
+      <c r="Z13" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB13" s="42" t="s">
+      <c r="AC13" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>283</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>284</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="46">
+        <v>123456790156</v>
+      </c>
+      <c r="D14" s="46">
+        <v>123456788</v>
+      </c>
+      <c r="E14" s="46">
+        <v>123456777</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>414</v>
+      </c>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="60"/>
-      <c r="Y14" s="42"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
-        <v>13</v>
-      </c>
-      <c r="B15" s="46">
+      <c r="L14" s="42"/>
+      <c r="N14" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q14" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="R14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH14" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI14" s="59">
+        <v>1234567898</v>
+      </c>
+      <c r="AJ14" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK14" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL14" s="58">
+        <v>84100</v>
+      </c>
+      <c r="AM14" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="AN14" s="58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="58"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="42">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="46">
         <v>12345679016</v>
       </c>
-      <c r="C15" s="46">
+      <c r="D16" s="46">
         <v>123456788</v>
       </c>
-      <c r="D15" s="46">
+      <c r="E16" s="46">
         <v>123456777</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="F16" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="G16" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="H16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="I16" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="J16" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="K16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="L16" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="43" t="s">
+      <c r="N16" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="O16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="63" t="s">
+      <c r="P16" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="P15" s="66" t="s">
+      <c r="Q16" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="Q15" s="1"/>
-      <c r="W15" t="s">
+      <c r="R16" s="1"/>
+      <c r="X16" t="s">
         <v>282</v>
       </c>
-      <c r="Y15" s="42" t="s">
+      <c r="Z16" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AB15" s="42" t="s">
+      <c r="AC16" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q18" s="60"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="AH2" r:id="rId2" display="someone@gmail.com"/>
-    <hyperlink ref="M3:M15" r:id="rId3" display="ab@gmail.com"/>
+    <hyperlink ref="N3:N14" r:id="rId1" display="ab@gmail.com"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="AI2" r:id="rId3" display="someone@gmail.com"/>
+    <hyperlink ref="N14" r:id="rId4"/>
+    <hyperlink ref="AI14" r:id="rId5" display="someone@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3612,7 +3784,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,6 +3880,9 @@
       <c r="H3" t="s">
         <v>362</v>
       </c>
+      <c r="I3" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3779,6 +3954,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
